--- a/salary_cap_assumptions.xlsx
+++ b/salary_cap_assumptions.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amykim/Documents/Metis/Course_2_Regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amykim/Documents/Metis/Course_2_Regression/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6427F7-36A0-4443-9C8A-57C21D65822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F7D84-A22A-AE48-8987-7841F0C0ACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14400" xr2:uid="{106CFFD2-06D9-5046-AB33-C803E32D40E1}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="25520" windowHeight="14400" xr2:uid="{106CFFD2-06D9-5046-AB33-C803E32D40E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Salary assumptions" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>max salary/ salary cap</t>
   </si>
@@ -50,6 +51,108 @@
   <si>
     <t>cap growth</t>
   </si>
+  <si>
+    <t>%CAP</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>years_active</t>
+  </si>
+  <si>
+    <t>FGpg</t>
+  </si>
+  <si>
+    <t>PTSpg</t>
+  </si>
+  <si>
+    <t>TTLAllStar</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>ASTpg</t>
+  </si>
+  <si>
+    <t>2Ppg</t>
+  </si>
+  <si>
+    <t>MPpg</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>FTpg</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>TRBpg</t>
+  </si>
+  <si>
+    <t>USG%</t>
+  </si>
+  <si>
+    <t>STLpg</t>
+  </si>
+  <si>
+    <t>3Ppg</t>
+  </si>
+  <si>
+    <t>PFpg</t>
+  </si>
+  <si>
+    <t>AllStar</t>
+  </si>
+  <si>
+    <t>BLKpg</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>FT%</t>
+  </si>
+  <si>
+    <t>TS%</t>
+  </si>
+  <si>
+    <t>eFG%</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>FG%</t>
+  </si>
+  <si>
+    <t>2P%</t>
+  </si>
+  <si>
+    <t>3P%</t>
+  </si>
+  <si>
+    <t>FTr</t>
+  </si>
+  <si>
+    <t>3PAr</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>DRtg</t>
+  </si>
+  <si>
+    <t>Pick</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +162,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,40 +183,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -129,26 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -159,27 +252,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -199,10 +369,2729 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Salary Cap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Salary assumptions'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Salary assumptions'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>942488.74458874459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>959394.3722943723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>976300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>996100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1339000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC2-CE48-BA54-6F2FC6C6080C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1764431488"/>
+        <c:axId val="1741674880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764431488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741674880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1741674880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764431488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Positive correlations with %CAP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Correlation charts'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>years_active</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FGpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PTSpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TTLAllStar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Correlation charts'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.639544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51573599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50946899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48397099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47160400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6F4-F440-9943-35AB40180062}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1764431488"/>
+        <c:axId val="1741674880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764431488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741674880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1741674880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764431488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8311419206570467E-2"/>
+          <c:y val="0.15189858024503691"/>
+          <c:w val="0.94175925068190003"/>
+          <c:h val="0.79915241655399138"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Negative Correlations with %CAP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Correlation charts'!$D$7:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FTr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3PAr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DRtg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Correlation charts'!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.0383999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7074000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.119892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.126972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31058999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCC2-E74E-92CC-29AB5B23F743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1764431488"/>
+        <c:axId val="1741674880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764431488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741674880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1741674880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764431488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90CDAB7-4C4F-284A-8170-0068F6E57893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE2D039-77B3-9F46-8B4A-70AEB2093501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E474990E-9863-5A45-909E-734447FB1A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Violet II">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,34 +3099,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="632E62"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EAE5EB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="92278F"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="9B57D3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="755DD9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="665EB8"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="45A5ED"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="5982DB"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0066FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="666699"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -496,161 +3385,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B8501-0ABF-BD48-B95E-B6FBB35A3D30}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:9" s="11" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="15">
         <v>2016</v>
       </c>
-      <c r="B2" s="5">
-        <f>C2/D2</f>
+      <c r="C3" s="16">
+        <f>D3/E3</f>
         <v>942488.74458874459</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D3" s="16">
         <v>111500</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E3" s="17">
         <v>0.11830380006145652</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="4" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
         <v>2017</v>
       </c>
-      <c r="B3" s="8">
-        <f>C3/D3</f>
+      <c r="C4" s="19">
+        <f>D4/E4</f>
         <v>959394.3722943723</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D4" s="19">
         <v>113500</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E4" s="20">
         <v>0.11830380006145652</v>
       </c>
-      <c r="E3" s="12">
-        <f>B3/B2-1</f>
+      <c r="F4" s="6">
+        <f>C4/C3-1</f>
         <v>1.7937219730941756E-2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>2018</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="1">
         <v>976300</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>115500</v>
       </c>
-      <c r="D4" s="3">
-        <f>C4/B4</f>
+      <c r="E5" s="3">
+        <f>D5/C5</f>
         <v>0.11830380006145652</v>
       </c>
-      <c r="E4" s="13">
-        <f>B4/B3-1</f>
+      <c r="F5" s="7">
+        <f>C5/C4-1</f>
         <v>1.7621145374449254E-2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>2019</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="1">
         <v>996100</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>127500</v>
       </c>
-      <c r="D5" s="3">
-        <f>C5/B5</f>
+      <c r="E6" s="3">
+        <f>D6/C6</f>
         <v>0.12799919686778435</v>
       </c>
-      <c r="E5" s="13">
-        <f>B5/B4-1</f>
+      <c r="F6" s="7">
+        <f>C6/C5-1</f>
         <v>2.0280651439106734E-2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>2020</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="1">
         <v>1300000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="1">
         <v>215000</v>
       </c>
-      <c r="D6" s="3">
-        <f>C6/B6</f>
+      <c r="E7" s="3">
+        <f>D7/C7</f>
         <v>0.16538461538461538</v>
       </c>
-      <c r="E6" s="13">
-        <f>B6/B5-1</f>
+      <c r="F7" s="7">
+        <f>C7/C6-1</f>
         <v>0.30508985041662484</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>2021</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <v>1339000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>221450</v>
       </c>
-      <c r="D7" s="3">
-        <f>C7/B7</f>
+      <c r="E8" s="3">
+        <f>D8/C8</f>
         <v>0.16538461538461538</v>
       </c>
-      <c r="E7" s="13">
-        <f>B7/B6-1</f>
+      <c r="F8" s="7">
+        <f>C8/C7-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7163C7-9948-C14C-986E-E033BE9355C0}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="9" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.19212099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.73818899999999998</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.19034000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.639544</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.18198400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.51573599999999997</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.16248199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.50946899999999995</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.144403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.48397099999999998</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-2.0383999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.47160400000000002</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-2.7074000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.46892899999999998</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-0.119892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.46179300000000001</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-0.126972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.43563499999999999</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-0.31058999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.43563499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.40803099999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.39297799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.38258700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.35378100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.34371499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.33665299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.28422900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.28075499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.27677200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.248894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.22584199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.21831700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.213834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.19212099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.19034000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.18198400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.16248199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.144403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>